--- a/src/main/resources/com/lenha/excel_3bc_toriai/sampleFiles/MAU EXCEL 2, 3.xlsx
+++ b/src/main/resources/com/lenha/excel_3bc_toriai/sampleFiles/MAU EXCEL 2, 3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
   <si>
     <t>様</t>
     <rPh sb="0" eb="1">
@@ -184,13 +184,6 @@
     <t>品名サイズ</t>
     <rPh sb="0" eb="2">
       <t>ヒンメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>泉</t>
-    <rPh sb="0" eb="1">
-      <t>イズミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -572,19 +565,19 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -625,66 +618,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>146813</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="楕円 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3665220" y="22860"/>
-          <a:ext cx="396240" cy="205740"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -977,7 +910,7 @@
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.15"/>
@@ -1016,7 +949,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="38"/>
@@ -1032,9 +965,9 @@
       </c>
       <c r="J1" s="28"/>
       <c r="K1" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="28"/>
@@ -1044,16 +977,14 @@
       <c r="Q1" s="28"/>
       <c r="R1" s="28"/>
       <c r="S1" s="28"/>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="33" t="s">
         <v>8</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>12</v>
       </c>
       <c r="V1" s="28"/>
-      <c r="W1" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="W1" s="14"/>
       <c r="X1" s="28" t="s">
         <v>18</v>
       </c>
@@ -1088,7 +1019,7 @@
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
       <c r="S2" s="29"/>
-      <c r="T2" s="35"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="29" t="s">
         <v>13</v>
       </c>
@@ -1115,15 +1046,15 @@
       <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="27"/>
       <c r="G3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="21"/>
       <c r="M3" s="20" t="s">
         <v>14</v>
@@ -1131,9 +1062,7 @@
       <c r="N3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="22">
-        <v>2</v>
-      </c>
+      <c r="O3" s="22"/>
       <c r="P3" s="21" t="s">
         <v>8</v>
       </c>
@@ -1228,16 +1157,18 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="25">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AB1:AD2"/>
     <mergeCell ref="I2:J2"/>
@@ -1250,9 +1181,7 @@
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1261,7 +1190,6 @@
     <oddHeader>&amp;L&amp;"メイリオ,ボールド"&amp;20弥富&amp;C&amp;"メイリオ,レギュラー"&amp;14加工指示書</oddHeader>
     <oddFooter>&amp;L&amp;"メイリオ,レギュラー"検査者は検品後、チェック欄にㇾ点を記入すること。</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1309,13 +1237,13 @@
   <sheetData>
     <row r="1" spans="1:30" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>0</v>
@@ -1329,9 +1257,9 @@
       </c>
       <c r="J1" s="28"/>
       <c r="K1" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="28">
@@ -1343,7 +1271,7 @@
       <c r="Q1" s="28"/>
       <c r="R1" s="28"/>
       <c r="S1" s="28"/>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="33" t="s">
         <v>8</v>
       </c>
       <c r="U1" s="28" t="s">
@@ -1351,7 +1279,7 @@
       </c>
       <c r="V1" s="28"/>
       <c r="W1" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X1" s="28" t="s">
         <v>18</v>
@@ -1362,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="AB1" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC1" s="30"/>
       <c r="AD1" s="30"/>
@@ -1389,7 +1317,7 @@
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
       <c r="S2" s="29"/>
-      <c r="T2" s="35"/>
+      <c r="T2" s="34"/>
       <c r="U2" s="29" t="s">
         <v>13</v>
       </c>
@@ -1407,7 +1335,7 @@
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="19" t="s">
@@ -1416,15 +1344,15 @@
       <c r="D3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="27"/>
       <c r="G3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="21"/>
       <c r="M3" s="20" t="s">
         <v>14</v>
@@ -1475,7 +1403,7 @@
       <c r="A4" s="24"/>
       <c r="B4" s="25"/>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="13">
         <v>10000</v>

--- a/src/main/resources/com/lenha/excel_3bc_toriai/sampleFiles/MAU EXCEL 2, 3.xlsx
+++ b/src/main/resources/com/lenha/excel_3bc_toriai/sampleFiles/MAU EXCEL 2, 3.xlsx
@@ -537,6 +537,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -545,18 +584,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -573,33 +600,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -910,7 +910,7 @@
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.15"/>
@@ -948,113 +948,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="28" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="33" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="28"/>
+      <c r="V1" s="27"/>
       <c r="W1" s="14"/>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="28"/>
+      <c r="Y1" s="27"/>
       <c r="Z1" s="16"/>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
     </row>
     <row r="2" spans="1:30" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="29" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="29" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="29"/>
+      <c r="V2" s="28"/>
       <c r="W2" s="15"/>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="29"/>
+      <c r="Y2" s="28"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="26" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="21"/>
       <c r="M3" s="20" t="s">
         <v>14</v>
@@ -1087,21 +1087,21 @@
         <v>8</v>
       </c>
       <c r="Y3" s="18"/>
-      <c r="Z3" s="26" t="s">
+      <c r="Z3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="26" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="27"/>
+      <c r="AC3" s="26"/>
       <c r="AD3" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="5"/>
       <c r="D4" s="13"/>
       <c r="E4" s="11" t="s">
@@ -1145,27 +1145,18 @@
         <v>5</v>
       </c>
       <c r="Y4" s="8"/>
-      <c r="Z4" s="26">
-        <f>(G4+O3)*I4+(K4+O3)*M4+(O4+O3)*Q4+(S4+O3)*U4+(W4+O3)*Y4</f>
+      <c r="Z4" s="24">
+        <f>(G4+$O$3)*I4+(K4+$O$3)*M4+(O4+$O$3)*Q4+(S4+$O$3)*U4+(W4+$O$3)*Y4</f>
         <v>0</v>
       </c>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="25"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="36"/>
       <c r="AD4" s="23"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="25">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
@@ -1182,6 +1173,15 @@
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1236,123 +1236,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="28" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="28">
+      <c r="M1" s="27">
         <v>84656</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="33" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="28"/>
+      <c r="V1" s="27"/>
       <c r="W1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="28"/>
+      <c r="Y1" s="27"/>
       <c r="Z1" s="16"/>
-      <c r="AA1" s="28" t="s">
+      <c r="AA1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
     </row>
     <row r="2" spans="1:30" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="29" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="29" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="29"/>
+      <c r="V2" s="28"/>
       <c r="W2" s="15"/>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="29"/>
+      <c r="Y2" s="28"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="26" t="s">
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="21"/>
       <c r="M3" s="20" t="s">
         <v>14</v>
@@ -1387,21 +1387,21 @@
         <v>8</v>
       </c>
       <c r="Y3" s="18"/>
-      <c r="Z3" s="26" t="s">
+      <c r="Z3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="26" t="s">
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="27"/>
+      <c r="AC3" s="26"/>
       <c r="AD3" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="19.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1455,18 +1455,27 @@
         <v>5</v>
       </c>
       <c r="Y4" s="8"/>
-      <c r="Z4" s="26">
+      <c r="Z4" s="24">
         <f>(G4+O3)*I4+(K4+O3)*M4+(O4+O3)*Q4+(S4+O3)*U4+(W4+O3)*Y4</f>
         <v>9404</v>
       </c>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="25"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="36"/>
       <c r="AD4" s="23"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="25">
+    <mergeCell ref="M1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:H2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="Z4:AA4"/>
     <mergeCell ref="AB4:AC4"/>
@@ -1483,15 +1492,6 @@
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
